--- a/app/Licenciatura_em_Gestao_de_Negocios_Distancia.xlsx
+++ b/app/Licenciatura_em_Gestao_de_Negocios_Distancia.xlsx
@@ -10,60 +10,57 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet name="20153016" sheetId="2" r:id="rId5"/>
-    <sheet name="20154457" sheetId="3" r:id="rId6"/>
-    <sheet name="20153026" sheetId="4" r:id="rId7"/>
-    <sheet name="20153015" sheetId="5" r:id="rId8"/>
-    <sheet name="20153048" sheetId="6" r:id="rId9"/>
-    <sheet name="20153042" sheetId="7" r:id="rId10"/>
-    <sheet name="20153021" sheetId="8" r:id="rId11"/>
-    <sheet name="20153028" sheetId="9" r:id="rId12"/>
-    <sheet name="20153007" sheetId="10" r:id="rId13"/>
-    <sheet name="20153031" sheetId="11" r:id="rId14"/>
-    <sheet name="20153041" sheetId="12" r:id="rId15"/>
-    <sheet name="20153053" sheetId="13" r:id="rId16"/>
-    <sheet name="20153011" sheetId="14" r:id="rId17"/>
-    <sheet name="20153023" sheetId="15" r:id="rId18"/>
-    <sheet name="20153012" sheetId="16" r:id="rId19"/>
-    <sheet name="20153035" sheetId="17" r:id="rId20"/>
-    <sheet name="20153008" sheetId="18" r:id="rId21"/>
-    <sheet name="20153047" sheetId="19" r:id="rId22"/>
-    <sheet name="20153052" sheetId="20" r:id="rId23"/>
-    <sheet name="20153051" sheetId="21" r:id="rId24"/>
-    <sheet name="20154525" sheetId="22" r:id="rId25"/>
-    <sheet name="20153046" sheetId="23" r:id="rId26"/>
-    <sheet name="20153010" sheetId="24" r:id="rId27"/>
-    <sheet name="20153030" sheetId="25" r:id="rId28"/>
-    <sheet name="20153039" sheetId="26" r:id="rId29"/>
-    <sheet name="20153034" sheetId="27" r:id="rId30"/>
-    <sheet name="20153017" sheetId="28" r:id="rId31"/>
-    <sheet name="20153038" sheetId="29" r:id="rId32"/>
-    <sheet name="20153040" sheetId="30" r:id="rId33"/>
-    <sheet name="20153050" sheetId="31" r:id="rId34"/>
-    <sheet name="20153009" sheetId="32" r:id="rId35"/>
-    <sheet name="20153043" sheetId="33" r:id="rId36"/>
-    <sheet name="20153025" sheetId="34" r:id="rId37"/>
-    <sheet name="20153027" sheetId="35" r:id="rId38"/>
-    <sheet name="20153018" sheetId="36" r:id="rId39"/>
-    <sheet name="20153032" sheetId="37" r:id="rId40"/>
-    <sheet name="20153022" sheetId="38" r:id="rId41"/>
-    <sheet name="20153014" sheetId="39" r:id="rId42"/>
-    <sheet name="20153049" sheetId="40" r:id="rId43"/>
-    <sheet name="20153037" sheetId="41" r:id="rId44"/>
-    <sheet name="20153044" sheetId="42" r:id="rId45"/>
-    <sheet name="20153036" sheetId="43" r:id="rId46"/>
-    <sheet name="20153020" sheetId="44" r:id="rId47"/>
-    <sheet name="20153054" sheetId="45" r:id="rId48"/>
-    <sheet name="20153045" sheetId="46" r:id="rId49"/>
-    <sheet name="20154801" sheetId="47" r:id="rId50"/>
-    <sheet name="20153055" sheetId="48" r:id="rId51"/>
-    <sheet name="20153019" sheetId="49" r:id="rId52"/>
-    <sheet name="20153024" sheetId="50" r:id="rId53"/>
-    <sheet name="20153033" sheetId="51" r:id="rId54"/>
-    <sheet name="20153013" sheetId="52" r:id="rId55"/>
-    <sheet name="20153029" sheetId="53" r:id="rId56"/>
-    <sheet name="20153056" sheetId="54" r:id="rId57"/>
-    <sheet name="Sheet2" sheetId="55" r:id="rId58"/>
-    <sheet name="Sheet3" sheetId="56" r:id="rId59"/>
+    <sheet name="20153026" sheetId="3" r:id="rId6"/>
+    <sheet name="20153015" sheetId="4" r:id="rId7"/>
+    <sheet name="20153048" sheetId="5" r:id="rId8"/>
+    <sheet name="20153042" sheetId="6" r:id="rId9"/>
+    <sheet name="20153021" sheetId="7" r:id="rId10"/>
+    <sheet name="20153028" sheetId="8" r:id="rId11"/>
+    <sheet name="20153007" sheetId="9" r:id="rId12"/>
+    <sheet name="20153031" sheetId="10" r:id="rId13"/>
+    <sheet name="20153041" sheetId="11" r:id="rId14"/>
+    <sheet name="20153053" sheetId="12" r:id="rId15"/>
+    <sheet name="20153011" sheetId="13" r:id="rId16"/>
+    <sheet name="20153023" sheetId="14" r:id="rId17"/>
+    <sheet name="20153012" sheetId="15" r:id="rId18"/>
+    <sheet name="20153035" sheetId="16" r:id="rId19"/>
+    <sheet name="20153008" sheetId="17" r:id="rId20"/>
+    <sheet name="20153047" sheetId="18" r:id="rId21"/>
+    <sheet name="20153052" sheetId="19" r:id="rId22"/>
+    <sheet name="20153051" sheetId="20" r:id="rId23"/>
+    <sheet name="20153046" sheetId="21" r:id="rId24"/>
+    <sheet name="20153010" sheetId="22" r:id="rId25"/>
+    <sheet name="20153030" sheetId="23" r:id="rId26"/>
+    <sheet name="20153039" sheetId="24" r:id="rId27"/>
+    <sheet name="20153034" sheetId="25" r:id="rId28"/>
+    <sheet name="20153017" sheetId="26" r:id="rId29"/>
+    <sheet name="20153038" sheetId="27" r:id="rId30"/>
+    <sheet name="20153040" sheetId="28" r:id="rId31"/>
+    <sheet name="20153050" sheetId="29" r:id="rId32"/>
+    <sheet name="20153009" sheetId="30" r:id="rId33"/>
+    <sheet name="20153043" sheetId="31" r:id="rId34"/>
+    <sheet name="20153025" sheetId="32" r:id="rId35"/>
+    <sheet name="20153027" sheetId="33" r:id="rId36"/>
+    <sheet name="20153018" sheetId="34" r:id="rId37"/>
+    <sheet name="20153032" sheetId="35" r:id="rId38"/>
+    <sheet name="20153022" sheetId="36" r:id="rId39"/>
+    <sheet name="20153014" sheetId="37" r:id="rId40"/>
+    <sheet name="20153049" sheetId="38" r:id="rId41"/>
+    <sheet name="20153037" sheetId="39" r:id="rId42"/>
+    <sheet name="20153044" sheetId="40" r:id="rId43"/>
+    <sheet name="20153036" sheetId="41" r:id="rId44"/>
+    <sheet name="20153020" sheetId="42" r:id="rId45"/>
+    <sheet name="20153054" sheetId="43" r:id="rId46"/>
+    <sheet name="20153045" sheetId="44" r:id="rId47"/>
+    <sheet name="20153055" sheetId="45" r:id="rId48"/>
+    <sheet name="20153019" sheetId="46" r:id="rId49"/>
+    <sheet name="20153024" sheetId="47" r:id="rId50"/>
+    <sheet name="20153033" sheetId="48" r:id="rId51"/>
+    <sheet name="20153013" sheetId="49" r:id="rId52"/>
+    <sheet name="20153029" sheetId="50" r:id="rId53"/>
+    <sheet name="20153056" sheetId="51" r:id="rId54"/>
+    <sheet name="Sheet2" sheetId="52" r:id="rId55"/>
+    <sheet name="Sheet3" sheetId="53" r:id="rId56"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -71,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="420">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -220,9 +217,6 @@
     <t>Balbina Uiliamo Mundlhovo</t>
   </si>
   <si>
-    <t>Distrito de Moamba</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -244,186 +238,162 @@
     <t>Escola Secundaria de Manjacaze</t>
   </si>
   <si>
-    <t>Tomo</t>
-  </si>
-  <si>
-    <t>Iva Helena</t>
+    <t>Timane</t>
+  </si>
+  <si>
+    <t>Antonio Raul Junior</t>
+  </si>
+  <si>
+    <t>1997-08-18</t>
+  </si>
+  <si>
+    <t>AntÓnio Raul Timane</t>
+  </si>
+  <si>
+    <t>Carolina Lurdes De Amaral</t>
+  </si>
+  <si>
+    <t>100101644044F</t>
+  </si>
+  <si>
+    <t>+258844801619</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Nampula</t>
+  </si>
+  <si>
+    <t>Tamele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emidio Pedro </t>
+  </si>
+  <si>
+    <t>1986-11-17</t>
+  </si>
+  <si>
+    <t>Pedro Jose Tamele</t>
+  </si>
+  <si>
+    <t>Carlota Carlos Manjate</t>
+  </si>
+  <si>
+    <t>110102827538Q</t>
+  </si>
+  <si>
+    <t>+258826238372</t>
+  </si>
+  <si>
+    <t>Escola Francisco Manyanga</t>
+  </si>
+  <si>
+    <t>Tafula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Duarte </t>
+  </si>
+  <si>
+    <t>1971-12-14</t>
+  </si>
+  <si>
+    <t>Salomao Tafula</t>
+  </si>
+  <si>
+    <t>Margarida Pedro</t>
+  </si>
+  <si>
+    <t>Talao de Bilhete de Identificacao</t>
+  </si>
+  <si>
+    <t>CARTA DE ELEITOR</t>
+  </si>
+  <si>
+    <t>+258842429160</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Mucoque</t>
+  </si>
+  <si>
+    <t>Sitoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varzino Vicente </t>
+  </si>
+  <si>
+    <t>1987-08-02</t>
+  </si>
+  <si>
+    <t>Vicente Joao Sitoe</t>
+  </si>
+  <si>
+    <t>Teresa Adriano Macamo</t>
+  </si>
+  <si>
+    <t>110102007490P</t>
+  </si>
+  <si>
+    <t>+258844100044</t>
+  </si>
+  <si>
+    <t>Escola Secundaria da Lhanguene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesario Joao </t>
+  </si>
+  <si>
+    <t>1980-01-17</t>
+  </si>
+  <si>
+    <t>Joao Jaime Sitoe</t>
+  </si>
+  <si>
+    <t>Alice Uaharia Ganhana</t>
+  </si>
+  <si>
+    <t>Casado</t>
+  </si>
+  <si>
+    <t>110100398959I</t>
+  </si>
+  <si>
+    <t>+258842144054</t>
+  </si>
+  <si>
+    <t>Instituto Industrial de Maputo</t>
+  </si>
+  <si>
+    <t>Sauane</t>
+  </si>
+  <si>
+    <t>Vicente Samuel</t>
+  </si>
+  <si>
+    <t>1984-09-17</t>
+  </si>
+  <si>
+    <t>Samuel Filipe Sauane</t>
+  </si>
+  <si>
+    <t>Cecilia Sibinde</t>
+  </si>
+  <si>
+    <t>091100496147F</t>
+  </si>
+  <si>
+    <t>+258869161202</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Chokwe</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Lidia Maria Da Glori Dos</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>Timane</t>
-  </si>
-  <si>
-    <t>Antonio Raul Junior</t>
-  </si>
-  <si>
-    <t>1997-08-18</t>
-  </si>
-  <si>
-    <t>AntÓnio Raul Timane</t>
-  </si>
-  <si>
-    <t>Carolina Lurdes De Amaral</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
-    <t>100101644044F</t>
-  </si>
-  <si>
-    <t>+258844801619</t>
-  </si>
-  <si>
-    <t>Escola Secundaria de Nampula</t>
-  </si>
-  <si>
-    <t>Tamele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emidio Pedro </t>
-  </si>
-  <si>
-    <t>1986-11-17</t>
-  </si>
-  <si>
-    <t>Pedro Jose Tamele</t>
-  </si>
-  <si>
-    <t>Carlota Carlos Manjate</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Katembe</t>
-  </si>
-  <si>
-    <t>110102827538Q</t>
-  </si>
-  <si>
-    <t>+258826238372</t>
-  </si>
-  <si>
-    <t>Escola Francisco Manyanga</t>
-  </si>
-  <si>
-    <t>Tafula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Duarte </t>
-  </si>
-  <si>
-    <t>1971-12-14</t>
-  </si>
-  <si>
-    <t>Salomao Tafula</t>
-  </si>
-  <si>
-    <t>Margarida Pedro</t>
-  </si>
-  <si>
-    <t>Distrito de Vilanculos</t>
-  </si>
-  <si>
-    <t>Talao de Bilhete de Identificacao</t>
-  </si>
-  <si>
-    <t>CARTA DE ELEITOR</t>
-  </si>
-  <si>
-    <t>+258842429160</t>
-  </si>
-  <si>
-    <t>Escola Secundaria de Mucoque</t>
-  </si>
-  <si>
-    <t>Sitoe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varzino Vicente </t>
-  </si>
-  <si>
-    <t>1987-08-02</t>
-  </si>
-  <si>
-    <t>Vicente Joao Sitoe</t>
-  </si>
-  <si>
-    <t>Teresa Adriano Macamo</t>
-  </si>
-  <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
-    <t>110102007490P</t>
-  </si>
-  <si>
-    <t>+258844100044</t>
-  </si>
-  <si>
-    <t>Escola Secundaria da Lhanguene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cesario Joao </t>
-  </si>
-  <si>
-    <t>1980-01-17</t>
-  </si>
-  <si>
-    <t>Joao Jaime Sitoe</t>
-  </si>
-  <si>
-    <t>Alice Uaharia Ganhana</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
-    <t>Casado</t>
-  </si>
-  <si>
-    <t>110100398959I</t>
-  </si>
-  <si>
-    <t>+258842144054</t>
-  </si>
-  <si>
-    <t>Instituto Industrial de Maputo</t>
-  </si>
-  <si>
-    <t>Sauane</t>
-  </si>
-  <si>
-    <t>Vicente Samuel</t>
-  </si>
-  <si>
-    <t>1984-09-17</t>
-  </si>
-  <si>
-    <t>Samuel Filipe Sauane</t>
-  </si>
-  <si>
-    <t>Cecilia Sibinde</t>
-  </si>
-  <si>
-    <t>Distrito de Massingir</t>
-  </si>
-  <si>
-    <t>091100496147F</t>
-  </si>
-  <si>
-    <t>+258869161202</t>
-  </si>
-  <si>
-    <t>Escola Secundaria de Chokwe</t>
-  </si>
-  <si>
-    <t>Santos</t>
-  </si>
-  <si>
-    <t>Lidia Maria Da Glori Dos</t>
-  </si>
-  <si>
     <t>Salimo</t>
   </si>
   <si>
@@ -439,9 +409,6 @@
     <t>Helena Fatima Ali</t>
   </si>
   <si>
-    <t>Cidade de Lichinga</t>
-  </si>
-  <si>
     <t>110101247743C</t>
   </si>
   <si>
@@ -490,9 +457,6 @@
     <t>Laura Albano Nhandamo</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -568,9 +532,6 @@
     <t>Berta Cecilia Felisberto</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>100100653290B</t>
   </si>
   <si>
@@ -592,9 +553,6 @@
     <t>Fatima Azarias Tembe</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110104693153P</t>
   </si>
   <si>
@@ -619,9 +577,6 @@
     <t>Celeste AndrÉ ManhiÇa</t>
   </si>
   <si>
-    <t>Distrito de Matutuine</t>
-  </si>
-  <si>
     <t>110101183503N</t>
   </si>
   <si>
@@ -643,9 +598,6 @@
     <t>Ester Tembe</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110300203739J</t>
   </si>
   <si>
@@ -670,9 +622,6 @@
     <t>Milagrosa Amosse Mate</t>
   </si>
   <si>
-    <t>Distrito de Xai-Xai</t>
-  </si>
-  <si>
     <t>090101234335N</t>
   </si>
   <si>
@@ -703,12 +652,6 @@
     <t>+258827907841</t>
   </si>
   <si>
-    <t>Matsimbe</t>
-  </si>
-  <si>
-    <t>Mila Manuel</t>
-  </si>
-  <si>
     <t>Matavele</t>
   </si>
   <si>
@@ -790,9 +733,6 @@
     <t>Celeste Maria A. Machava</t>
   </si>
   <si>
-    <t>Distrito de Zavala</t>
-  </si>
-  <si>
     <t>100100453883P</t>
   </si>
   <si>
@@ -970,9 +910,6 @@
     <t>Alice Tchabana</t>
   </si>
   <si>
-    <t>Distrito de Chibuto</t>
-  </si>
-  <si>
     <t>110100532975I</t>
   </si>
   <si>
@@ -1039,9 +976,6 @@
     <t>Anabela R. E. Franklin</t>
   </si>
   <si>
-    <t>Cidade de Tete</t>
-  </si>
-  <si>
     <t>070100175431S</t>
   </si>
   <si>
@@ -1087,9 +1021,6 @@
     <t>Saquina Daude Mamudo</t>
   </si>
   <si>
-    <t>Distrito de Montepuez</t>
-  </si>
-  <si>
     <t>10351219/1</t>
   </si>
   <si>
@@ -1114,9 +1045,6 @@
     <t xml:space="preserve"> Cacilda Libombo</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110101247214A</t>
   </si>
   <si>
@@ -1180,9 +1108,6 @@
     <t>Raquel Jaime Bule</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>100304648771Q</t>
   </si>
   <si>
@@ -1247,12 +1172,6 @@
   </si>
   <si>
     <t>+258843015963</t>
-  </si>
-  <si>
-    <t>Chau</t>
-  </si>
-  <si>
-    <t>Eldo Custódio</t>
   </si>
   <si>
     <t>Chabane</t>
@@ -2644,7 +2563,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153007</v>
+        <v>20153031</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2668,7 +2587,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2684,7 +2603,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2699,7 +2618,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -2713,7 +2634,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -2727,7 +2650,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -2748,7 +2673,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -2757,14 +2684,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -2774,13 +2705,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -2875,7 +2810,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2901,7 +2836,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2006</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -2915,7 +2852,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -3217,7 +3156,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153031</v>
+        <v>20153041</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3241,7 +3180,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3257,7 +3196,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3273,7 +3212,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3289,7 +3228,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3305,7 +3244,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3320,9 +3259,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3330,7 +3267,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3341,7 +3278,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3350,7 +3287,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3362,7 +3299,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3370,7 +3307,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3466,7 +3403,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3493,7 +3430,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3509,7 +3446,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3812,7 +3749,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153041</v>
+        <v>20153053</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3836,7 +3773,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3852,7 +3789,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3868,7 +3805,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3884,7 +3821,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3900,7 +3837,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3915,9 +3852,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3925,7 +3860,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3936,7 +3871,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3945,7 +3880,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3957,7 +3892,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3965,7 +3900,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4061,7 +3996,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4088,7 +4023,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4104,7 +4039,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4407,7 +4342,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153053</v>
+        <v>20153011</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4431,7 +4366,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4447,7 +4382,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4463,7 +4398,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4479,7 +4414,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4495,7 +4430,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4510,9 +4445,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>139</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4520,7 +4453,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4531,7 +4464,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4540,7 +4473,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4552,7 +4485,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4560,7 +4493,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4656,7 +4589,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4683,7 +4616,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4699,7 +4632,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5002,7 +4935,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153011</v>
+        <v>20153023</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5026,7 +4959,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5042,7 +4975,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5058,7 +4991,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5074,7 +5007,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5090,7 +5023,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5105,9 +5038,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>93</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5115,7 +5046,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5126,7 +5057,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5135,7 +5066,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5147,7 +5078,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5155,7 +5086,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5251,7 +5182,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5278,7 +5209,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>1992</v>
+        <v>2003</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5294,7 +5225,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5597,7 +5528,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153023</v>
+        <v>20153012</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5621,7 +5552,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5637,7 +5568,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5653,7 +5584,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5669,7 +5600,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5685,7 +5616,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5700,9 +5631,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>101</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5710,7 +5639,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5721,7 +5650,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5730,7 +5659,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5742,7 +5671,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5750,7 +5679,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5846,7 +5775,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5873,7 +5802,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5889,7 +5818,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6192,7 +6121,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153012</v>
+        <v>20153035</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6216,7 +6145,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6232,7 +6161,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6248,7 +6177,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6264,7 +6193,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6280,7 +6209,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6295,9 +6224,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>165</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6305,7 +6232,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6316,7 +6243,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6325,7 +6252,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6337,7 +6264,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6345,7 +6272,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6441,7 +6368,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6468,7 +6395,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6484,7 +6411,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6787,7 +6714,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153035</v>
+        <v>20153008</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6811,7 +6738,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6827,7 +6754,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6843,7 +6770,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6859,7 +6786,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6875,7 +6802,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6890,9 +6817,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>173</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6900,7 +6825,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6911,7 +6836,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6920,7 +6845,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6932,7 +6857,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6940,7 +6865,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7036,7 +6961,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7063,7 +6988,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7079,7 +7004,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7382,7 +7307,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153008</v>
+        <v>20153047</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7406,7 +7331,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7422,7 +7347,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7438,7 +7363,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7454,7 +7379,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7470,7 +7395,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7485,9 +7410,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>182</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7495,7 +7418,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7506,7 +7429,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7515,7 +7438,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7527,7 +7450,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7535,7 +7458,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7631,7 +7554,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7658,7 +7581,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7674,7 +7597,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7977,7 +7900,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153047</v>
+        <v>20153052</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8001,7 +7924,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8017,7 +7940,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8033,7 +7956,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8049,7 +7972,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8065,7 +7988,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8080,9 +8003,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>190</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8090,7 +8011,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8101,7 +8022,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8110,7 +8031,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8122,7 +8043,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8130,7 +8051,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8226,7 +8147,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8253,7 +8174,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8269,7 +8190,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8675,9 +8596,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8685,7 +8604,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8696,7 +8615,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8705,7 +8624,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8717,7 +8636,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8725,7 +8644,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8821,7 +8740,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8864,7 +8783,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9167,7 +9086,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153052</v>
+        <v>20153051</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9191,7 +9110,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9207,7 +9126,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9223,7 +9142,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9239,7 +9158,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9255,7 +9174,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9270,9 +9189,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>199</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9280,7 +9197,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9291,7 +9208,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9300,7 +9217,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9312,15 +9229,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>200</v>
+      <c r="H17" s="20">
+        <v>2196307</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9416,7 +9333,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9443,7 +9360,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9459,7 +9376,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>202</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9762,7 +9679,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153051</v>
+        <v>20153046</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9786,7 +9703,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9802,7 +9719,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9818,7 +9735,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9834,7 +9751,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9850,7 +9767,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9865,9 +9782,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>190</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9875,7 +9790,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9886,7 +9801,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9895,7 +9810,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9907,15 +9822,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>2196307</v>
+      <c r="H17" s="20" t="s">
+        <v>199</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10011,7 +9926,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10038,7 +9953,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10054,7 +9969,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10305,7 +10220,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -10355,7 +10272,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154525</v>
+        <v>20153010</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10379,7 +10296,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10395,7 +10312,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10410,7 +10327,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>203</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -10424,7 +10343,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>204</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -10438,7 +10359,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>205</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -10459,7 +10382,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -10468,14 +10393,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -10485,13 +10414,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>206</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -10586,7 +10519,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10612,7 +10545,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2010</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -10626,7 +10561,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>208</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -10928,7 +10865,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153046</v>
+        <v>20153030</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10952,7 +10889,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10968,7 +10905,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10984,7 +10921,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11000,7 +10937,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11016,7 +10953,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11031,9 +10968,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11041,7 +10976,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11052,7 +10987,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11061,7 +10996,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11073,7 +11008,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11081,7 +11016,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11177,7 +11112,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11204,7 +11139,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11220,7 +11155,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11523,7 +11458,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153010</v>
+        <v>20153039</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11547,7 +11482,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11563,7 +11498,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11579,7 +11514,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11595,7 +11530,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11611,7 +11546,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11626,9 +11561,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>165</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11636,7 +11569,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11647,7 +11580,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11656,7 +11589,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11668,7 +11601,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11676,7 +11609,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11772,7 +11705,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11815,7 +11748,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12118,7 +12051,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153030</v>
+        <v>20153034</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12142,7 +12075,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12158,7 +12091,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12174,7 +12107,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12190,7 +12123,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12206,7 +12139,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12221,9 +12154,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>93</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12231,7 +12162,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12242,7 +12173,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12251,7 +12182,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12263,7 +12194,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12271,7 +12202,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12367,7 +12298,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12394,7 +12325,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12410,7 +12341,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>226</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12713,7 +12644,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153039</v>
+        <v>20153017</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12737,7 +12668,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12753,7 +12684,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12769,7 +12700,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12785,7 +12716,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12801,7 +12732,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12816,9 +12747,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>239</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12826,7 +12755,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12837,7 +12766,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12846,7 +12775,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12858,7 +12787,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12866,7 +12795,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12962,7 +12891,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12989,7 +12918,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13005,7 +12934,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13308,7 +13237,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153034</v>
+        <v>20153038</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13332,7 +13261,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13348,7 +13277,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13364,7 +13293,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13380,7 +13309,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13396,7 +13325,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13411,9 +13340,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13421,7 +13348,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13432,7 +13359,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13441,7 +13368,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13453,7 +13380,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>242</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13461,7 +13388,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13557,7 +13484,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13584,7 +13511,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13600,7 +13527,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13903,7 +13830,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153017</v>
+        <v>20153040</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13927,7 +13854,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13943,7 +13870,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13959,7 +13886,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13975,7 +13902,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13991,7 +13918,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14006,9 +13933,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>139</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14016,7 +13941,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14027,7 +13952,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14036,7 +13961,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14048,7 +13973,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14056,7 +13981,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14152,7 +14077,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14179,7 +14104,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14195,7 +14120,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14498,7 +14423,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153038</v>
+        <v>20153050</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14522,7 +14447,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14538,7 +14463,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14554,7 +14479,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14570,7 +14495,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14586,7 +14511,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14601,9 +14526,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14611,7 +14534,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14622,7 +14545,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14631,7 +14554,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14643,7 +14566,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>261</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14651,7 +14574,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14747,7 +14670,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14774,7 +14697,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14790,7 +14713,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15041,7 +14964,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -15091,7 +15016,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154457</v>
+        <v>20153026</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15115,7 +15040,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15131,7 +15056,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15146,7 +15071,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -15160,7 +15087,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -15174,7 +15103,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -15195,7 +15126,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -15204,14 +15137,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -15221,13 +15158,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -15322,7 +15263,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15348,7 +15289,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -15362,7 +15305,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -15664,7 +15609,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153040</v>
+        <v>20153009</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15688,7 +15633,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15704,7 +15649,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15720,7 +15665,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15736,7 +15681,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15752,7 +15697,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15767,9 +15712,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>239</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15777,7 +15720,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15788,7 +15731,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15797,7 +15740,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15809,7 +15752,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15817,7 +15760,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15913,7 +15856,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15940,7 +15883,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15956,7 +15899,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>271</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16259,7 +16202,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153050</v>
+        <v>20153043</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16283,7 +16226,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16299,7 +16242,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16315,7 +16258,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16331,7 +16274,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16347,7 +16290,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16362,9 +16305,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>165</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16372,7 +16313,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16383,7 +16324,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16392,7 +16333,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16404,7 +16345,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16412,7 +16353,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16508,7 +16449,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16535,7 +16476,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16551,7 +16492,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>279</v>
+        <v>178</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16854,7 +16795,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153009</v>
+        <v>20153025</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16878,7 +16819,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16894,7 +16835,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16910,7 +16851,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16926,7 +16867,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16942,7 +16883,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16957,9 +16898,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>101</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16967,7 +16906,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16978,7 +16917,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16987,7 +16926,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16999,7 +16938,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17007,7 +16946,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17103,7 +17042,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17130,7 +17069,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17146,7 +17085,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17449,7 +17388,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153043</v>
+        <v>20153027</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17473,7 +17412,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17489,7 +17428,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17505,7 +17444,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17521,7 +17460,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17537,7 +17476,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17552,9 +17491,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>93</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17562,7 +17499,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17573,7 +17510,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17582,7 +17519,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17594,7 +17531,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17602,7 +17539,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17698,7 +17635,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17725,7 +17662,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17741,7 +17678,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>193</v>
+        <v>289</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18044,7 +17981,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153025</v>
+        <v>20153018</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18068,7 +18005,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18084,7 +18021,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18100,7 +18037,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18116,7 +18053,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18132,7 +18069,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18147,9 +18084,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>299</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18157,7 +18092,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18168,7 +18103,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18177,7 +18112,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18189,7 +18124,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18197,7 +18132,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18293,7 +18228,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18336,7 +18271,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>226</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18639,7 +18574,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153027</v>
+        <v>20153032</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18663,7 +18598,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18679,7 +18614,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18695,7 +18630,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18711,7 +18646,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18727,7 +18662,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18742,9 +18677,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>93</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18752,7 +18685,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18763,7 +18696,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18772,7 +18705,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18784,7 +18717,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18792,7 +18725,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18888,7 +18821,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18931,7 +18864,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19234,7 +19167,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153018</v>
+        <v>20153022</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19258,7 +19191,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19274,7 +19207,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19290,7 +19223,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19306,7 +19239,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19322,7 +19255,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19337,9 +19270,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19347,7 +19278,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19358,7 +19289,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19367,7 +19298,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19379,7 +19310,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19387,7 +19318,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19483,7 +19414,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19510,7 +19441,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19526,7 +19457,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19829,7 +19760,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153032</v>
+        <v>20153014</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19853,7 +19784,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19869,7 +19800,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19885,7 +19816,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19901,7 +19832,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19917,7 +19848,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19932,9 +19863,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>322</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19942,7 +19871,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19953,7 +19882,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19962,7 +19891,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19974,7 +19903,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>242</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19982,7 +19911,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20078,7 +20007,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20105,7 +20034,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20121,7 +20050,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20424,7 +20353,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153022</v>
+        <v>20153049</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20448,7 +20377,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20464,7 +20393,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20480,7 +20409,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20496,7 +20425,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20512,7 +20441,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20527,9 +20456,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>93</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20537,7 +20464,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20548,7 +20475,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20557,7 +20484,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20569,7 +20496,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20577,7 +20504,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20673,7 +20600,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20700,7 +20627,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20716,7 +20643,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>159</v>
+        <v>327</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21019,7 +20946,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153014</v>
+        <v>20153037</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21043,7 +20970,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21059,7 +20986,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21075,7 +21002,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21091,7 +21018,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21107,7 +21034,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21122,9 +21049,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>338</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21132,7 +21057,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21143,7 +21068,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21152,7 +21077,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21164,7 +21089,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>261</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21172,7 +21097,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21268,7 +21193,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21295,7 +21220,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>1992</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -21311,7 +21236,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>341</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21614,7 +21539,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153026</v>
+        <v>20153015</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21638,7 +21563,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21654,7 +21579,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21670,7 +21595,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21686,7 +21611,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21702,7 +21627,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21717,9 +21642,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21727,7 +21650,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21738,7 +21661,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21747,7 +21670,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21759,7 +21682,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21767,7 +21690,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21863,7 +21786,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21890,7 +21813,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -21906,7 +21829,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22209,7 +22132,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153049</v>
+        <v>20153044</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22233,7 +22156,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22249,7 +22172,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22265,7 +22188,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>344</v>
+        <v>239</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22281,7 +22204,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22297,7 +22220,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22312,9 +22235,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>347</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22322,7 +22243,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22333,7 +22254,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22342,7 +22263,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22354,7 +22275,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22362,7 +22283,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22458,7 +22379,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22485,7 +22406,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -22501,7 +22422,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>350</v>
+        <v>123</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22804,7 +22725,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153037</v>
+        <v>20153036</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22828,7 +22749,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22844,7 +22765,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22860,7 +22781,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22876,7 +22797,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22892,7 +22813,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22907,9 +22828,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>182</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22917,7 +22836,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22928,7 +22847,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22937,7 +22856,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22949,7 +22868,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22957,7 +22876,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23053,7 +22972,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23080,7 +22999,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>1992</v>
+        <v>2002</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -23096,7 +23015,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23399,7 +23318,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153044</v>
+        <v>20153020</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23423,7 +23342,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23439,7 +23358,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23455,7 +23374,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23471,7 +23390,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23487,7 +23406,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23502,9 +23421,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23512,7 +23429,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23523,7 +23440,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23532,7 +23449,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23544,7 +23461,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23552,7 +23469,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23648,7 +23565,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23691,7 +23608,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23994,7 +23911,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153036</v>
+        <v>20153054</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -24018,7 +23935,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24034,7 +23951,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24050,7 +23967,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24066,7 +23983,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24082,7 +23999,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24097,9 +24014,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>369</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24107,7 +24022,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24118,7 +24033,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24127,7 +24042,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24139,15 +24054,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>370</v>
+      <c r="H17" s="20">
+        <v>110100319867</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24243,7 +24158,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24270,7 +24185,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -24286,7 +24201,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24589,7 +24504,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153020</v>
+        <v>20153045</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -24613,7 +24528,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24629,7 +24544,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24645,7 +24560,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24661,7 +24576,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24677,7 +24592,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24692,9 +24607,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>165</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24702,7 +24615,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24713,7 +24626,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24722,7 +24635,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24734,7 +24647,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24742,7 +24655,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24838,7 +24751,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24865,7 +24778,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -24881,7 +24794,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25184,7 +25097,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153054</v>
+        <v>20153055</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -25208,7 +25121,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25224,7 +25137,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25240,7 +25153,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25256,7 +25169,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25272,7 +25185,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25287,9 +25200,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>93</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25297,7 +25208,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25308,7 +25219,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25317,7 +25228,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25329,15 +25240,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>110100319867</v>
+      <c r="H17" s="20" t="s">
+        <v>373</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25433,7 +25344,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25460,7 +25371,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -25476,7 +25387,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25779,7 +25690,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153045</v>
+        <v>20153019</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -25803,7 +25714,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25819,7 +25730,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25835,7 +25746,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25851,7 +25762,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25867,7 +25778,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25882,9 +25793,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25892,7 +25801,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25903,7 +25812,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25912,7 +25821,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25924,7 +25833,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25932,7 +25841,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26028,7 +25937,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26055,7 +25964,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -26071,7 +25980,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26322,7 +26231,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -26372,7 +26283,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154801</v>
+        <v>20153024</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -26396,7 +26307,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26412,7 +26323,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26427,7 +26338,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>384</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -26441,7 +26354,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>385</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -26455,7 +26370,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>386</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -26476,7 +26393,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -26485,14 +26404,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -26502,13 +26425,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>387</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -26603,7 +26530,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>59</v>
+        <v>388</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26629,7 +26556,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2006</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -26643,7 +26572,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>208</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -26945,7 +26876,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153055</v>
+        <v>20153033</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -26969,7 +26900,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26985,7 +26916,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27001,7 +26932,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27017,7 +26948,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27033,7 +26964,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27048,9 +26979,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>165</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27058,7 +26987,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27069,7 +26998,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27078,7 +27007,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27090,7 +27019,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27098,7 +27027,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27194,7 +27123,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27221,7 +27150,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -27237,7 +27166,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>96</v>
+        <v>396</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27540,7 +27469,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153019</v>
+        <v>20153013</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -27564,7 +27493,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27580,7 +27509,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27596,7 +27525,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27612,7 +27541,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27628,7 +27557,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27643,9 +27572,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>165</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27653,7 +27580,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27664,7 +27591,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27673,7 +27600,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27685,7 +27612,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27693,7 +27620,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27789,7 +27716,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27816,7 +27743,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -27832,7 +27759,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>226</v>
+        <v>396</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28135,7 +28062,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153015</v>
+        <v>20153048</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -28159,7 +28086,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28175,7 +28102,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28191,7 +28118,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28207,7 +28134,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28223,7 +28150,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28238,9 +28165,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28248,7 +28173,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28259,7 +28184,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28268,7 +28193,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28280,7 +28205,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28288,7 +28213,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28384,7 +28309,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28411,7 +28336,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -28427,7 +28352,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28730,7 +28655,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153024</v>
+        <v>20153029</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -28754,7 +28679,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28770,7 +28695,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28786,7 +28711,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28802,7 +28727,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28818,7 +28743,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28833,9 +28758,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>165</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28843,7 +28766,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28854,7 +28777,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28863,7 +28786,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28875,7 +28798,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28883,7 +28806,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28979,7 +28902,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29006,7 +28929,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -29022,7 +28945,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>226</v>
+        <v>411</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29325,7 +29248,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153033</v>
+        <v>20153056</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -29349,7 +29272,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29365,7 +29288,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29381,7 +29304,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29397,7 +29320,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29413,7 +29336,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29428,9 +29351,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>165</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29438,7 +29359,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29449,7 +29370,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29458,7 +29379,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29470,7 +29391,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>417</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29478,7 +29399,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29574,7 +29495,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29601,7 +29522,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -29617,7 +29538,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>422</v>
+        <v>208</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29820,1791 +29741,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153013</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>423</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>429</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2011</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153029</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>436</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2004</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153056</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>445</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -31628,7 +29764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31761,7 +29897,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153048</v>
+        <v>20153042</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -31785,7 +29921,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31801,7 +29937,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -31817,7 +29953,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -31833,7 +29969,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -31849,7 +29985,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -31864,9 +30000,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>83</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -31874,7 +30008,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -31885,7 +30019,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -31894,7 +30028,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -31906,7 +30040,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -31914,7 +30048,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -32010,7 +30144,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32053,7 +30187,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -32356,7 +30490,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153042</v>
+        <v>20153021</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -32380,7 +30514,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -32459,9 +30593,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>93</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -32469,7 +30601,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -32480,7 +30612,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -32489,7 +30621,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -32501,7 +30633,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -32632,7 +30764,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -32951,7 +31083,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153021</v>
+        <v>20153028</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -32975,7 +31107,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -32991,7 +31123,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -33007,7 +31139,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -33023,7 +31155,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -33039,7 +31171,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -33054,9 +31186,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>101</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -33064,7 +31194,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -33075,7 +31205,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -33084,7 +31214,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -33096,7 +31226,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -33104,7 +31234,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -33200,7 +31330,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -33227,7 +31357,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -33243,7 +31373,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -33546,7 +31676,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153028</v>
+        <v>20153007</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -33570,7 +31700,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -33586,7 +31716,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -33601,9 +31731,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -33617,9 +31745,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -33633,9 +31759,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>110</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -33649,18 +31773,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -33669,18 +31789,14 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -33690,17 +31806,13 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -33795,7 +31907,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -33821,9 +31933,7 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2005</v>
-      </c>
+      <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -33837,9 +31947,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>114</v>
-      </c>
+      <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
